--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3918,4 +3919,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5229,4 +5230,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5238,7 +5239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,17 +5250,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5269,14 +5290,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.34</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9414</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5285,14 +5328,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.52</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5301,14 +5366,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.69</v>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5317,13 +5404,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6473,7 +6474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6484,17 +6485,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6504,14 +6525,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.86</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6520,14 +6563,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.34</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6536,14 +6601,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.52</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6552,14 +6639,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.69</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6568,13 +6677,3017 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8892</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5908</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9570,7 +9571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9581,17 +9582,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9601,14 +9622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.05</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9617,14 +9660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.86</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9633,14 +9698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.34</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9649,14 +9736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.52</v>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9665,14 +9774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.69</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -9681,13 +9812,1167 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5855</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5855</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5337</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>42</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D2" t="n">
-        <v>23.56</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>36.05</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>11.86</v>
+        <v>36.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>13.34</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>4.52</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>3.69</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>42</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.78</v>
       </c>
     </row>
@@ -600,6 +617,5370 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2169</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9801</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009028</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1867,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4963,7 +10344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6197,7 +11578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7507,7 +12888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8323,7 +13704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9329,7 +14710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600988-赤峰黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>48.28</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D3" t="n">
-        <v>23.56</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>36.05</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>11.86</v>
+        <v>36.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>13.34</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>4.52</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>3.69</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1682 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>42</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2286,3134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4989</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7699</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7587</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>561330</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属矿业主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5980,7 +10777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7248,7 +12045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10344,7 +15141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11578,7 +16375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12888,7 +17685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13704,7 +18501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14708,1656 +19505,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华核心价值优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6859</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6497</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>180010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华优质增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3149</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009085</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华丰享一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>73.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7642</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6573</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>180013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华领先策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4886</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4484</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006302</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4060</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002307</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华多元视野灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2803</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2754</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2713</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2156</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005251</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华多元动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2126</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1922</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1922</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005519</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华混改红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1376</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0978</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0958</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000904</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华回报灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0951</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0897</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519007</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>海富通强化回报混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>32.52</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006610</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>银华远见混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>89.76</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>